--- a/GITHW/Adv System Project/Butler_AdvSysProj_DecisionMatrix.xlsx
+++ b/GITHW/Adv System Project/Butler_AdvSysProj_DecisionMatrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_HW\Butler_Java2_Labs\GITHW\Adv System Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9505AAC-2395-4292-9CC4-1C1F91C2E801}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9ABCC6-9EB7-4EC4-9481-437E6BD3A67D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,11 +162,11 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,16 +297,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +873,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -882,14 +882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -906,16 +906,16 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -924,19 +924,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4">
         <v>90</v>
       </c>
-      <c r="D4" s="4">
-        <v>90</v>
-      </c>
-      <c r="E4" s="4">
-        <v>50</v>
-      </c>
       <c r="F4" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -944,19 +944,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C5" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
         <v>70</v>
       </c>
-      <c r="D5" s="4">
-        <v>90</v>
-      </c>
       <c r="E5" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F5" s="4">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -967,16 +967,16 @@
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>
       </c>
       <c r="F6" s="4">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -990,13 +990,13 @@
         <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4">
         <v>50</v>
       </c>
       <c r="F7" s="4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1004,19 +1004,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1024,19 +1024,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4">
         <v>50</v>
       </c>
       <c r="F9" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1065,23 +1065,23 @@
       </c>
       <c r="B11" s="6">
         <f>SUM(B4:B10)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C11" s="2">
         <f>$B4*C4+$B5*C5+$B6*C6+$B7*C7+$B8*C8+$B9*C9+$B10*C10</f>
-        <v>56</v>
+        <v>53.5</v>
       </c>
       <c r="D11" s="2">
         <f>$B4*D4+$B5*D5+$B6*D6+$B7*D7+$B8*D8+$B9*D9+$B10*D10</f>
-        <v>78.5</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2">
         <f>$B4*E4+$B5*E5+$B6*E6+$B7*E7+$B8*E8+$B9*E9+$B10*E10</f>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2">
         <f>$B4*F4+$B5*F5+$B6*F6+$B7*F7+$B8*F8+$B9*F9+$B10*F10</f>
-        <v>41.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
